--- a/Asistencias/estadisticas_asistencias.xlsx
+++ b/Asistencias/estadisticas_asistencias.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3451,6 +3451,32 @@
     <row r="1000">
       <c r="F1000" s="1" t="n"/>
     </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>202500000</t>
+        </is>
+      </c>
+      <c r="B1001" t="inlineStr">
+        <is>
+          <t>Emerson ALdair Pérez Rivera</t>
+        </is>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>Electronica</t>
+        </is>
+      </c>
+      <c r="D1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1001" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
